--- a/mallar/import/Jalla_september_2020.xlsx
+++ b/mallar/import/Jalla_september_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCE115D-37E6-46F0-9D11-EAF38C0578F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42C260A-12C5-49CD-B8BD-917E187E07EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="780" windowWidth="29040" windowHeight="17640" xr2:uid="{AB315E71-407A-4084-B7A8-D6D6B844B3A4}"/>
+    <workbookView xWindow="20108" yWindow="2100" windowWidth="2700" windowHeight="1590" xr2:uid="{AB315E71-407A-4084-B7A8-D6D6B844B3A4}"/>
   </bookViews>
   <sheets>
     <sheet name="ekipage" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="236">
   <si>
     <t>Linn Odensten</t>
   </si>
@@ -737,6 +737,15 @@
   </si>
   <si>
     <t>Team Safir</t>
+  </si>
+  <si>
+    <t>47 (2 domare)</t>
+  </si>
+  <si>
+    <t>Tindra Öberg och Lovisa Baeckström</t>
+  </si>
+  <si>
+    <t>Elin Hedman(S)</t>
   </si>
 </sst>
 </file>
@@ -780,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -789,6 +798,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,8 +1116,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1306,10 +1316,10 @@
         <v>7</v>
       </c>
       <c r="P3">
-        <v>54208</v>
+        <v>109403</v>
       </c>
       <c r="Q3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="R3">
         <v>41401</v>
@@ -1362,10 +1372,10 @@
         <v>127</v>
       </c>
       <c r="L4">
-        <v>40406</v>
+        <v>99940406</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
@@ -1417,28 +1427,28 @@
         <v>110</v>
       </c>
       <c r="D6">
-        <v>56148</v>
+        <v>39527</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F6">
-        <v>116676</v>
+        <v>10362</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6">
-        <v>114</v>
+        <v>875</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6">
-        <v>56088</v>
+        <v>99523</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
@@ -1452,28 +1462,28 @@
         <v>110</v>
       </c>
       <c r="D7">
-        <v>39527</v>
+        <v>141889</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F7">
-        <v>10362</v>
+        <v>5831</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="H7">
-        <v>875</v>
+        <v>223</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L7">
-        <v>99523</v>
+        <v>38739</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.45">
@@ -1496,7 +1506,7 @@
         <v>5831</v>
       </c>
       <c r="G8" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="H8">
         <v>223</v>
@@ -1505,56 +1515,56 @@
         <v>73</v>
       </c>
       <c r="L8">
-        <v>38739</v>
+        <v>40310</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>490705</v>
+        <v>490707</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9">
-        <v>141889</v>
+        <v>56148</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9">
-        <v>5831</v>
+        <v>116676</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c r="H9">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L9">
-        <v>40310</v>
+        <v>124198</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>490707</v>
+        <v>490705</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10">
         <v>56148</v>
@@ -1566,7 +1576,7 @@
         <v>116676</v>
       </c>
       <c r="G10" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="H10">
         <v>114</v>
@@ -1575,10 +1585,10 @@
         <v>76</v>
       </c>
       <c r="L10">
-        <v>124198</v>
+        <v>56088</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
@@ -1661,7 +1671,7 @@
       <c r="C13" t="s">
         <v>112</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>56148</v>
       </c>
       <c r="E13" t="s">
@@ -1706,7 +1716,7 @@
         <v>2135</v>
       </c>
       <c r="G14" t="s">
-        <v>223</v>
+        <v>86</v>
       </c>
       <c r="H14">
         <v>875</v>
@@ -1715,13 +1725,13 @@
         <v>77</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L14">
-        <v>119967</v>
+        <v>99453</v>
       </c>
       <c r="M14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.45">
@@ -1735,31 +1745,31 @@
         <v>112</v>
       </c>
       <c r="D15">
-        <v>36847</v>
+        <v>49704</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F15">
-        <v>81736</v>
+        <v>2135</v>
       </c>
       <c r="G15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H15">
-        <v>223</v>
+        <v>875</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L15">
-        <v>74165</v>
+        <v>119967</v>
       </c>
       <c r="M15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.45">
@@ -1773,31 +1783,31 @@
         <v>112</v>
       </c>
       <c r="D16">
-        <v>49704</v>
+        <v>36847</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F16">
-        <v>2135</v>
+        <v>81736</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="H16">
-        <v>875</v>
+        <v>223</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L16">
-        <v>99453</v>
+        <v>74165</v>
       </c>
       <c r="M16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.45">
@@ -2053,14 +2063,11 @@
       <c r="I23" t="s">
         <v>73</v>
       </c>
-      <c r="J23" t="s">
-        <v>137</v>
-      </c>
       <c r="L23">
-        <v>145200</v>
+        <v>101580</v>
       </c>
       <c r="M23" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.45">
@@ -2080,10 +2087,10 @@
         <v>101</v>
       </c>
       <c r="F24">
-        <v>81736</v>
+        <v>93110</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H24">
         <v>223</v>
@@ -2092,13 +2099,13 @@
         <v>73</v>
       </c>
       <c r="J24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L24">
-        <v>134608</v>
+        <v>145200</v>
       </c>
       <c r="M24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.45">
@@ -2112,31 +2119,31 @@
         <v>113</v>
       </c>
       <c r="D25">
-        <v>39527</v>
+        <v>36847</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F25">
-        <v>10362</v>
+        <v>81736</v>
       </c>
       <c r="G25" t="s">
-        <v>226</v>
+        <v>87</v>
       </c>
       <c r="H25">
-        <v>875</v>
+        <v>223</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L25">
-        <v>107672</v>
+        <v>134608</v>
       </c>
       <c r="M25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.45">
@@ -2150,28 +2157,31 @@
         <v>113</v>
       </c>
       <c r="D26">
-        <v>36847</v>
+        <v>39527</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F26">
-        <v>93110</v>
+        <v>10362</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="H26">
-        <v>223</v>
+        <v>875</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="J26" t="s">
+        <v>139</v>
       </c>
       <c r="L26">
-        <v>101580</v>
+        <v>107672</v>
       </c>
       <c r="M26" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.45">
@@ -2223,64 +2233,58 @@
         <v>116</v>
       </c>
       <c r="D28">
-        <v>36847</v>
+        <v>95073</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F28">
-        <v>81736</v>
+        <v>55525</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H28">
-        <v>223</v>
+        <v>1198</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K28" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L28">
-        <v>134608</v>
+        <v>133914</v>
       </c>
       <c r="M28" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N28">
-        <v>150025</v>
+        <v>141722</v>
       </c>
       <c r="O28" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P28">
-        <v>145287</v>
+        <v>129688</v>
       </c>
       <c r="Q28" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="R28">
-        <v>149851</v>
+        <v>129079</v>
       </c>
       <c r="S28" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="T28">
-        <v>160950</v>
+        <v>163768</v>
       </c>
       <c r="U28" t="s">
-        <v>38</v>
-      </c>
-      <c r="V28">
-        <v>150091</v>
-      </c>
-      <c r="W28" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.45">
@@ -2294,64 +2298,64 @@
         <v>116</v>
       </c>
       <c r="D29">
-        <v>68838</v>
+        <v>36847</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F29">
-        <v>137228</v>
+        <v>81736</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H29">
-        <v>875</v>
+        <v>223</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L29">
-        <v>36794</v>
+        <v>134608</v>
       </c>
       <c r="M29" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N29">
-        <v>50023</v>
+        <v>150025</v>
       </c>
       <c r="O29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="P29">
-        <v>64245</v>
+        <v>145287</v>
       </c>
       <c r="Q29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="R29">
-        <v>82678</v>
+        <v>149851</v>
       </c>
       <c r="S29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T29">
-        <v>64250</v>
+        <v>160950</v>
       </c>
       <c r="U29" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="V29">
-        <v>108189</v>
+        <v>150091</v>
       </c>
       <c r="W29" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.45">
@@ -2365,58 +2369,64 @@
         <v>116</v>
       </c>
       <c r="D30">
-        <v>95073</v>
+        <v>68838</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30">
-        <v>55525</v>
+        <v>137228</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30">
-        <v>1198</v>
+        <v>875</v>
       </c>
       <c r="I30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L30">
-        <v>133914</v>
+        <v>36794</v>
       </c>
       <c r="M30" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N30">
-        <v>141722</v>
+        <v>50023</v>
       </c>
       <c r="O30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="P30">
-        <v>129688</v>
+        <v>64245</v>
       </c>
       <c r="Q30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="R30">
-        <v>129079</v>
+        <v>82678</v>
       </c>
       <c r="S30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="T30">
-        <v>163768</v>
+        <v>64250</v>
       </c>
       <c r="U30" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="V30">
+        <v>108189</v>
+      </c>
+      <c r="W30" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.45">
@@ -2430,58 +2440,58 @@
         <v>117</v>
       </c>
       <c r="D31">
-        <v>56148</v>
+        <v>40068</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F31">
-        <v>133922</v>
+        <v>72506</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H31">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="I31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L31">
-        <v>152168</v>
+        <v>158594</v>
       </c>
       <c r="M31" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N31">
-        <v>141313</v>
+        <v>163832</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P31">
-        <v>129556</v>
+        <v>148007</v>
       </c>
       <c r="Q31" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="R31">
-        <v>129524</v>
+        <v>163903</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="T31">
-        <v>129417</v>
+        <v>150090</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.45">
@@ -2495,58 +2505,58 @@
         <v>117</v>
       </c>
       <c r="D32">
-        <v>40068</v>
+        <v>56148</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F32">
-        <v>72506</v>
+        <v>133922</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H32">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L32">
-        <v>158594</v>
+        <v>152168</v>
       </c>
       <c r="M32" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N32">
-        <v>163832</v>
+        <v>141313</v>
       </c>
       <c r="O32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P32">
-        <v>148007</v>
+        <v>129556</v>
       </c>
       <c r="Q32" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="R32">
-        <v>163903</v>
+        <v>129524</v>
       </c>
       <c r="S32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="T32">
-        <v>150090</v>
+        <v>129417</v>
       </c>
       <c r="U32" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.45">
@@ -2560,52 +2570,46 @@
         <v>119</v>
       </c>
       <c r="D33">
-        <v>163755</v>
+        <v>40310</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="F33">
-        <v>98871</v>
+        <v>93110</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H33">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="I33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K33" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="L33">
-        <v>130297</v>
+        <v>155140</v>
       </c>
       <c r="M33" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="N33">
-        <v>155892</v>
+        <v>164021</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="P33">
-        <v>163872</v>
+        <v>164010</v>
       </c>
       <c r="Q33" t="s">
-        <v>63</v>
-      </c>
-      <c r="R33">
-        <v>160597</v>
-      </c>
-      <c r="S33" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.45">
@@ -2619,52 +2623,52 @@
         <v>119</v>
       </c>
       <c r="D34">
-        <v>54511</v>
+        <v>163755</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34">
-        <v>72506</v>
+        <v>98871</v>
       </c>
       <c r="G34" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H34">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K34" t="s">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="L34">
-        <v>163943</v>
+        <v>130297</v>
       </c>
       <c r="M34" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N34">
-        <v>163765</v>
+        <v>155892</v>
       </c>
       <c r="O34" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P34">
-        <v>155344</v>
+        <v>163872</v>
       </c>
       <c r="Q34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R34">
-        <v>164011</v>
+        <v>160597</v>
       </c>
       <c r="S34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.45">
@@ -2678,16 +2682,16 @@
         <v>119</v>
       </c>
       <c r="D35">
-        <v>40310</v>
+        <v>54511</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="F35">
-        <v>93110</v>
+        <v>72506</v>
       </c>
       <c r="G35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H35">
         <v>223</v>
@@ -2696,28 +2700,34 @@
         <v>73</v>
       </c>
       <c r="J35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L35">
-        <v>155140</v>
+        <v>163943</v>
       </c>
       <c r="M35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N35">
-        <v>164021</v>
+        <v>163765</v>
       </c>
       <c r="O35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P35">
-        <v>164010</v>
+        <v>155344</v>
       </c>
       <c r="Q35" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="R35">
+        <v>164011</v>
+      </c>
+      <c r="S35" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.45">
@@ -2787,13 +2797,13 @@
         <v>76</v>
       </c>
       <c r="J37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L37">
-        <v>160597</v>
+        <v>130297</v>
       </c>
       <c r="M37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.45">
@@ -2860,13 +2870,13 @@
         <v>76</v>
       </c>
       <c r="J39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L39">
-        <v>130297</v>
+        <v>160597</v>
       </c>
       <c r="M39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.45">
@@ -2880,10 +2890,10 @@
         <v>123</v>
       </c>
       <c r="D40">
-        <v>36847</v>
+        <v>40310</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="F40">
         <v>93110</v>
@@ -2899,6 +2909,9 @@
       </c>
       <c r="J40" t="s">
         <v>135</v>
+      </c>
+      <c r="K40" t="s">
+        <v>234</v>
       </c>
       <c r="L40">
         <v>101407</v>
@@ -2924,7 +2937,7 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3143,10 +3156,13 @@
         <v>116</v>
       </c>
       <c r="D10">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E10">
         <v>1054</v>
+      </c>
+      <c r="G10">
+        <v>1053</v>
       </c>
       <c r="O10" s="1">
         <v>18</v>
@@ -3169,10 +3185,13 @@
         <v>117</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>152</v>
+      </c>
+      <c r="G11" t="s">
+        <v>233</v>
       </c>
       <c r="O11" s="1">
         <v>19</v>
@@ -3215,10 +3234,13 @@
         <v>119</v>
       </c>
       <c r="D13">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
         <v>153</v>
+      </c>
+      <c r="G13">
+        <v>44</v>
       </c>
       <c r="O13" s="1">
         <v>21</v>
@@ -3261,10 +3283,13 @@
         <v>121</v>
       </c>
       <c r="D15">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>48</v>
+      </c>
+      <c r="G15">
+        <v>43</v>
       </c>
       <c r="O15" s="1">
         <v>23</v>
@@ -3287,10 +3312,13 @@
         <v>122</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>49</v>
+      </c>
+      <c r="G16">
+        <v>45</v>
       </c>
       <c r="O16" s="1">
         <v>24</v>
@@ -3313,10 +3341,13 @@
         <v>123</v>
       </c>
       <c r="D17">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E17">
         <v>1056</v>
+      </c>
+      <c r="G17">
+        <v>1055</v>
       </c>
       <c r="O17" s="1">
         <v>25</v>
@@ -4073,10 +4104,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28B307A-344C-405A-B58D-A87B55F418A9}">
   <sheetPr codeName="Blad6"/>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4665,6 +4696,14 @@
         <v>72</v>
       </c>
     </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>99940406</v>
+      </c>
+      <c r="B74" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mallar/import/Jalla_september_2020.xlsx
+++ b/mallar/import/Jalla_september_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42C260A-12C5-49CD-B8BD-917E187E07EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48392B96-EC7C-423A-BA52-BFB22827454D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20108" yWindow="2100" windowWidth="2700" windowHeight="1590" xr2:uid="{AB315E71-407A-4084-B7A8-D6D6B844B3A4}"/>
+    <workbookView xWindow="45" yWindow="1522" windowWidth="20685" windowHeight="10658" activeTab="5" xr2:uid="{AB315E71-407A-4084-B7A8-D6D6B844B3A4}"/>
   </bookViews>
   <sheets>
     <sheet name="ekipage" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="269">
   <si>
     <t>Linn Odensten</t>
   </si>
@@ -746,6 +746,105 @@
   </si>
   <si>
     <t>Elin Hedman(S)</t>
+  </si>
+  <si>
+    <t>Vit 1</t>
+  </si>
+  <si>
+    <t>Vit 7</t>
+  </si>
+  <si>
+    <t>Vit 2</t>
+  </si>
+  <si>
+    <t>Blå 12</t>
+  </si>
+  <si>
+    <t>Vit 4</t>
+  </si>
+  <si>
+    <t>Svart 1</t>
+  </si>
+  <si>
+    <t>Svart 9</t>
+  </si>
+  <si>
+    <t>Svart 3</t>
+  </si>
+  <si>
+    <t>Svart 4</t>
+  </si>
+  <si>
+    <t>Svart 2</t>
+  </si>
+  <si>
+    <t>Vit 5</t>
+  </si>
+  <si>
+    <t>Blå 1</t>
+  </si>
+  <si>
+    <t>Blå 3</t>
+  </si>
+  <si>
+    <t>Vit 10</t>
+  </si>
+  <si>
+    <t>Blå 2</t>
+  </si>
+  <si>
+    <t>Vit 19</t>
+  </si>
+  <si>
+    <t>Vit 20</t>
+  </si>
+  <si>
+    <t>Vit 21</t>
+  </si>
+  <si>
+    <t>Blå 7</t>
+  </si>
+  <si>
+    <t>Blå 8</t>
+  </si>
+  <si>
+    <t>Vit 11</t>
+  </si>
+  <si>
+    <t>Svart 13</t>
+  </si>
+  <si>
+    <t>Svart 15</t>
+  </si>
+  <si>
+    <t>Svart 14</t>
+  </si>
+  <si>
+    <t>Vit 8</t>
+  </si>
+  <si>
+    <t>Linnéa Rova</t>
+  </si>
+  <si>
+    <t>Vera Lundell</t>
+  </si>
+  <si>
+    <t>Tora Johansson</t>
+  </si>
+  <si>
+    <t>Maja Söderberg</t>
+  </si>
+  <si>
+    <t>Meja Högberg</t>
+  </si>
+  <si>
+    <t>Ravnkjermindes Nanny</t>
+  </si>
+  <si>
+    <t>Namn: Team Afrodite , Grundordning: 1: Linnea 2: Maja 3: Vera 4: Tora 5: Meja , , Önskemål om att Team Afrodite startar så långt ifrån Team Athena som möjligt i startlistan.</t>
+  </si>
+  <si>
+    <t>Team Afrodite</t>
   </si>
 </sst>
 </file>
@@ -769,12 +868,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -789,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -799,6 +904,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,10 +1222,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DDA34F-6DA0-49FE-8C0A-918DED65E406}">
   <sheetPr codeName="Blad1"/>
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2222,69 +2330,69 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A28">
+    <row r="28" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="7">
         <v>490711</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="7">
         <v>10</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D28">
-        <v>95073</v>
-      </c>
-      <c r="E28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28">
-        <v>55525</v>
-      </c>
-      <c r="G28" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28">
-        <v>1198</v>
-      </c>
-      <c r="I28" t="s">
-        <v>75</v>
-      </c>
-      <c r="J28" t="s">
-        <v>143</v>
-      </c>
-      <c r="K28" t="s">
-        <v>159</v>
-      </c>
-      <c r="L28">
-        <v>133914</v>
-      </c>
-      <c r="M28" t="s">
-        <v>46</v>
-      </c>
-      <c r="N28">
-        <v>141722</v>
-      </c>
-      <c r="O28" t="s">
-        <v>47</v>
-      </c>
-      <c r="P28">
-        <v>129688</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>48</v>
-      </c>
-      <c r="R28">
-        <v>129079</v>
-      </c>
-      <c r="S28" t="s">
-        <v>49</v>
-      </c>
-      <c r="T28">
-        <v>163768</v>
-      </c>
-      <c r="U28" t="s">
-        <v>50</v>
+      <c r="D28" s="7">
+        <v>99453</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="7">
+        <v>139818</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="7">
+        <v>875</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L28" s="7">
+        <v>107737</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="N28" s="7">
+        <v>105337</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P28" s="7">
+        <v>127857</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="R28" s="7">
+        <v>129183</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="T28" s="7">
+        <v>140351</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.45">
@@ -2298,64 +2406,58 @@
         <v>116</v>
       </c>
       <c r="D29">
-        <v>36847</v>
+        <v>95073</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F29">
-        <v>81736</v>
+        <v>55525</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H29">
-        <v>223</v>
+        <v>1198</v>
       </c>
       <c r="I29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L29">
-        <v>134608</v>
+        <v>133914</v>
       </c>
       <c r="M29" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N29">
-        <v>150025</v>
+        <v>141722</v>
       </c>
       <c r="O29" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P29">
-        <v>145287</v>
+        <v>129688</v>
       </c>
       <c r="Q29" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="R29">
-        <v>149851</v>
+        <v>129079</v>
       </c>
       <c r="S29" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="T29">
-        <v>160950</v>
+        <v>163768</v>
       </c>
       <c r="U29" t="s">
-        <v>38</v>
-      </c>
-      <c r="V29">
-        <v>150091</v>
-      </c>
-      <c r="W29" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.45">
@@ -2369,129 +2471,135 @@
         <v>116</v>
       </c>
       <c r="D30">
-        <v>68838</v>
+        <v>36847</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F30">
-        <v>137228</v>
+        <v>81736</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H30">
-        <v>875</v>
+        <v>223</v>
       </c>
       <c r="I30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L30">
-        <v>36794</v>
+        <v>134608</v>
       </c>
       <c r="M30" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N30">
-        <v>50023</v>
+        <v>150025</v>
       </c>
       <c r="O30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="P30">
-        <v>64245</v>
+        <v>145287</v>
       </c>
       <c r="Q30" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="R30">
-        <v>82678</v>
+        <v>149851</v>
       </c>
       <c r="S30" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T30">
-        <v>64250</v>
+        <v>160950</v>
       </c>
       <c r="U30" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="V30">
-        <v>108189</v>
+        <v>150091</v>
       </c>
       <c r="W30" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>490712</v>
+        <v>490711</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31">
-        <v>40068</v>
+        <v>68838</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F31">
-        <v>72506</v>
+        <v>137228</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H31">
-        <v>223</v>
+        <v>875</v>
       </c>
       <c r="I31" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K31" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="L31">
-        <v>158594</v>
+        <v>64250</v>
       </c>
       <c r="M31" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N31">
-        <v>163832</v>
+        <v>50023</v>
       </c>
       <c r="O31" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="P31">
-        <v>148007</v>
+        <v>82678</v>
       </c>
       <c r="Q31" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="R31">
-        <v>163903</v>
+        <v>36794</v>
       </c>
       <c r="S31" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="T31">
-        <v>150090</v>
+        <v>64245</v>
       </c>
       <c r="U31" t="s">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="V31">
+        <v>108189</v>
+      </c>
+      <c r="W31" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.45">
@@ -2505,114 +2613,126 @@
         <v>117</v>
       </c>
       <c r="D32">
+        <v>40068</v>
+      </c>
+      <c r="E32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32">
+        <v>72506</v>
+      </c>
+      <c r="G32" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32">
+        <v>223</v>
+      </c>
+      <c r="I32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32">
+        <v>158594</v>
+      </c>
+      <c r="M32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32">
+        <v>163832</v>
+      </c>
+      <c r="O32" t="s">
+        <v>57</v>
+      </c>
+      <c r="P32">
+        <v>148007</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>58</v>
+      </c>
+      <c r="R32">
+        <v>163903</v>
+      </c>
+      <c r="S32" t="s">
+        <v>59</v>
+      </c>
+      <c r="T32">
+        <v>150090</v>
+      </c>
+      <c r="U32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>490712</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33">
         <v>56148</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>97</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>133922</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>82</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>114</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I33" t="s">
         <v>76</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J33" t="s">
         <v>144</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K33" t="s">
         <v>230</v>
       </c>
-      <c r="L32">
+      <c r="L33">
         <v>152168</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M33" t="s">
         <v>51</v>
       </c>
-      <c r="N32">
+      <c r="N33">
         <v>141313</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O33" t="s">
         <v>52</v>
       </c>
-      <c r="P32">
+      <c r="P33">
         <v>129556</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q33" t="s">
         <v>53</v>
       </c>
-      <c r="R32">
+      <c r="R33">
         <v>129524</v>
       </c>
-      <c r="S32" t="s">
+      <c r="S33" t="s">
         <v>54</v>
       </c>
-      <c r="T32">
+      <c r="T33">
         <v>129417</v>
       </c>
-      <c r="U32" t="s">
+      <c r="U33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>490714</v>
-      </c>
-      <c r="B33">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33">
-        <v>40310</v>
-      </c>
-      <c r="E33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33">
-        <v>93110</v>
-      </c>
-      <c r="G33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33">
-        <v>223</v>
-      </c>
-      <c r="I33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J33" t="s">
-        <v>148</v>
-      </c>
-      <c r="K33" t="s">
-        <v>148</v>
-      </c>
-      <c r="L33">
-        <v>155140</v>
-      </c>
-      <c r="M33" t="s">
-        <v>69</v>
-      </c>
-      <c r="N33">
-        <v>164021</v>
-      </c>
-      <c r="O33" t="s">
-        <v>70</v>
-      </c>
-      <c r="P33">
-        <v>164010</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>490714</v>
       </c>
@@ -2623,55 +2743,49 @@
         <v>119</v>
       </c>
       <c r="D34">
-        <v>163755</v>
+        <v>40310</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="F34">
-        <v>98871</v>
+        <v>93110</v>
       </c>
       <c r="G34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H34">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="I34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K34" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="L34">
-        <v>130297</v>
+        <v>155140</v>
       </c>
       <c r="M34" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="N34">
-        <v>155892</v>
+        <v>164021</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="P34">
-        <v>163872</v>
+        <v>164010</v>
       </c>
       <c r="Q34" t="s">
-        <v>63</v>
-      </c>
-      <c r="R34">
-        <v>160597</v>
-      </c>
-      <c r="S34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>490714</v>
       </c>
@@ -2682,131 +2796,152 @@
         <v>119</v>
       </c>
       <c r="D35">
+        <v>163755</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35">
+        <v>98871</v>
+      </c>
+      <c r="G35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35">
+        <v>114</v>
+      </c>
+      <c r="I35" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35">
+        <v>130297</v>
+      </c>
+      <c r="M35" t="s">
+        <v>61</v>
+      </c>
+      <c r="N35">
+        <v>155892</v>
+      </c>
+      <c r="O35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35">
+        <v>163872</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>63</v>
+      </c>
+      <c r="R35">
+        <v>160597</v>
+      </c>
+      <c r="S35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>490714</v>
+      </c>
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36">
         <v>54511</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>106</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>72506</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>89</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>223</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I36" t="s">
         <v>73</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J36" t="s">
         <v>147</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K36" t="s">
         <v>147</v>
       </c>
-      <c r="L35">
+      <c r="L36">
         <v>163943</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M36" t="s">
         <v>65</v>
       </c>
-      <c r="N35">
+      <c r="N36">
         <v>163765</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O36" t="s">
         <v>66</v>
       </c>
-      <c r="P35">
+      <c r="P36">
         <v>155344</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q36" t="s">
         <v>67</v>
       </c>
-      <c r="R35">
+      <c r="R36">
         <v>164011</v>
       </c>
-      <c r="S35" t="s">
+      <c r="S36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A36">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A37">
         <v>490716</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>15</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>121</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>40552</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>102</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>106742</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>88</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>869</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I37" t="s">
         <v>78</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J37" t="s">
         <v>149</v>
       </c>
-      <c r="L36">
+      <c r="L37">
         <v>95120</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M37" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>490717</v>
-      </c>
-      <c r="B37">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37">
-        <v>163755</v>
-      </c>
-      <c r="E37" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37">
-        <v>98871</v>
-      </c>
-      <c r="G37" t="s">
-        <v>93</v>
-      </c>
-      <c r="H37">
-        <v>114</v>
-      </c>
-      <c r="I37" t="s">
-        <v>76</v>
-      </c>
-      <c r="J37" t="s">
-        <v>151</v>
-      </c>
-      <c r="L37">
-        <v>130297</v>
-      </c>
-      <c r="M37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>490717</v>
       </c>
@@ -2834,14 +2969,17 @@
       <c r="I38" t="s">
         <v>76</v>
       </c>
+      <c r="J38" t="s">
+        <v>151</v>
+      </c>
       <c r="L38">
-        <v>155892</v>
+        <v>130297</v>
       </c>
       <c r="M38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>490717</v>
       </c>
@@ -2869,60 +3007,95 @@
       <c r="I39" t="s">
         <v>76</v>
       </c>
-      <c r="J39" t="s">
+      <c r="L39">
+        <v>155892</v>
+      </c>
+      <c r="M39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>490717</v>
+      </c>
+      <c r="B40">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40">
+        <v>163755</v>
+      </c>
+      <c r="E40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40">
+        <v>98871</v>
+      </c>
+      <c r="G40" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40">
+        <v>114</v>
+      </c>
+      <c r="I40" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" t="s">
         <v>150</v>
       </c>
-      <c r="L39">
+      <c r="L40">
         <v>160597</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A40">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A41">
         <v>490718</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>17</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>123</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>40310</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>22</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>93110</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G41" t="s">
         <v>90</v>
       </c>
-      <c r="H40">
+      <c r="H41">
         <v>223</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I41" t="s">
         <v>73</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J41" t="s">
         <v>135</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K41" t="s">
         <v>234</v>
       </c>
-      <c r="L40">
+      <c r="L41">
         <v>101407</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M41" t="s">
         <v>30</v>
       </c>
-      <c r="N40">
+      <c r="N41">
         <v>145200</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O41" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3759,10 +3932,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE5AE03-2A33-4C5C-B480-5FB59470CEAD}">
   <sheetPr codeName="Blad3"/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3883,6 +4056,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="7">
+        <v>99453</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3891,10 +4072,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA6B3F7-F801-41E9-BCDD-8D6C6201DACE}">
   <sheetPr codeName="Blad4"/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4020,6 +4201,14 @@
       </c>
       <c r="B15" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="6">
+        <v>139818</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4104,15 +4293,18 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28B307A-344C-405A-B58D-A87B55F418A9}">
   <sheetPr codeName="Blad6"/>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="26.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>129881</v>
       </c>
@@ -4120,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>129660</v>
       </c>
@@ -4128,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>115495</v>
       </c>
@@ -4136,7 +4328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>124472</v>
       </c>
@@ -4144,7 +4336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>113062</v>
       </c>
@@ -4152,15 +4344,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>119893</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>55422</v>
       </c>
@@ -4168,15 +4363,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>69830</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>54208</v>
       </c>
@@ -4184,15 +4382,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>41401</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>113034</v>
       </c>
@@ -4200,15 +4401,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>101580</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>107749</v>
       </c>
@@ -4216,7 +4420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>129485</v>
       </c>
@@ -4224,7 +4428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>96828</v>
       </c>
@@ -4232,7 +4436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>108087</v>
       </c>
@@ -4240,7 +4444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>134138</v>
       </c>
@@ -4248,7 +4452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>107961</v>
       </c>
@@ -4256,143 +4460,194 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>40406</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>56088</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>99523</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>38739</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>40310</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>124198</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>120007</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>119967</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>74165</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>99453</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>120827</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>109403</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>101407</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>145200</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>134608</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>107672</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>145535</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>150025</v>
       </c>
@@ -4400,7 +4655,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>145287</v>
       </c>
@@ -4408,7 +4663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>149851</v>
       </c>
@@ -4416,7 +4671,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>160950</v>
       </c>
@@ -4424,7 +4679,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>150091</v>
       </c>
@@ -4432,7 +4687,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>36794</v>
       </c>
@@ -4440,7 +4695,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>50023</v>
       </c>
@@ -4448,7 +4703,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>64245</v>
       </c>
@@ -4456,7 +4711,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>82678</v>
       </c>
@@ -4464,7 +4719,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>64250</v>
       </c>
@@ -4472,7 +4727,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>108189</v>
       </c>
@@ -4480,7 +4735,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>133914</v>
       </c>
@@ -4488,7 +4743,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>141722</v>
       </c>
@@ -4496,7 +4751,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>129688</v>
       </c>
@@ -4504,7 +4759,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>129079</v>
       </c>
@@ -4512,7 +4767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>163768</v>
       </c>
@@ -4520,7 +4775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>152168</v>
       </c>
@@ -4528,7 +4783,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>141313</v>
       </c>
@@ -4536,7 +4791,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>129556</v>
       </c>
@@ -4544,7 +4799,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>129524</v>
       </c>
@@ -4552,7 +4807,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>129417</v>
       </c>
@@ -4560,7 +4815,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>158594</v>
       </c>
@@ -4568,7 +4823,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>163832</v>
       </c>
@@ -4576,7 +4831,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>148007</v>
       </c>
@@ -4584,7 +4839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>163903</v>
       </c>
@@ -4592,7 +4847,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>150090</v>
       </c>
@@ -4600,23 +4855,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>130297</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>155892</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C63" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>163872</v>
       </c>
@@ -4624,15 +4885,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>160597</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C65" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>163943</v>
       </c>
@@ -4640,7 +4904,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>163765</v>
       </c>
@@ -4648,7 +4912,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>155344</v>
       </c>
@@ -4656,7 +4920,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>164011</v>
       </c>
@@ -4664,7 +4928,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>155140</v>
       </c>
@@ -4672,7 +4936,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>164021</v>
       </c>
@@ -4680,7 +4944,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>164010</v>
       </c>
@@ -4688,20 +4952,66 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>95120</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C73" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>99940406</v>
       </c>
       <c r="B74" t="s">
         <v>235</v>
+      </c>
+      <c r="C74" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="5">
+        <v>107737</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="5">
+        <v>127857</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="5">
+        <v>129183</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="5">
+        <v>105337</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="5">
+        <v>140351</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/mallar/import/Jalla_september_2020.xlsx
+++ b/mallar/import/Jalla_september_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48392B96-EC7C-423A-BA52-BFB22827454D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DCAF84-D2F4-4BD1-8C49-D848EC512233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="1522" windowWidth="20685" windowHeight="10658" activeTab="5" xr2:uid="{AB315E71-407A-4084-B7A8-D6D6B844B3A4}"/>
+    <workbookView xWindow="1778" yWindow="1778" windowWidth="16200" windowHeight="9397" activeTab="1" xr2:uid="{AB315E71-407A-4084-B7A8-D6D6B844B3A4}"/>
   </bookViews>
   <sheets>
     <sheet name="ekipage" sheetId="1" r:id="rId1"/>
@@ -899,14 +899,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1779,7 +1779,7 @@
       <c r="C13" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>56148</v>
       </c>
       <c r="E13" t="s">
@@ -2330,68 +2330,68 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="7">
+    <row r="28" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="6">
         <v>490711</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>10</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>99453</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>139818</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <v>875</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="6">
         <v>107737</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="6">
         <v>105337</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O28" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="6">
         <v>127857</v>
       </c>
-      <c r="Q28" s="7" t="s">
+      <c r="Q28" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R28" s="6">
         <v>129183</v>
       </c>
-      <c r="S28" s="7" t="s">
+      <c r="S28" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="T28" s="7">
+      <c r="T28" s="6">
         <v>140351</v>
       </c>
-      <c r="U28" s="7" t="s">
+      <c r="U28" s="6" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3109,8 +3109,8 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3167,7 +3167,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>490704</v>
       </c>
       <c r="B3">
@@ -3329,7 +3329,7 @@
         <v>116</v>
       </c>
       <c r="D10">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E10">
         <v>1054</v>
@@ -3358,7 +3358,7 @@
         <v>117</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
         <v>152</v>
@@ -3407,7 +3407,7 @@
         <v>119</v>
       </c>
       <c r="D13">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
         <v>153</v>
@@ -3456,7 +3456,7 @@
         <v>121</v>
       </c>
       <c r="D15">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E15">
         <v>48</v>
@@ -3485,7 +3485,7 @@
         <v>122</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>49</v>
@@ -3514,7 +3514,7 @@
         <v>123</v>
       </c>
       <c r="D17">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E17">
         <v>1056</v>
@@ -3676,22 +3676,22 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="O31" s="2">
+      <c r="O31" s="7">
         <v>41</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="Q31" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="O32" s="2"/>
+      <c r="O32" s="7"/>
       <c r="P32" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q32" s="2"/>
+      <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O33" s="1">
@@ -3705,22 +3705,22 @@
       </c>
     </row>
     <row r="34" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O34" s="2">
+      <c r="O34" s="7">
         <v>43</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="Q34" s="7" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="35" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O35" s="2"/>
+      <c r="O35" s="7"/>
       <c r="P35" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="Q35" s="2"/>
+      <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O36" s="1">
@@ -3877,22 +3877,22 @@
       </c>
     </row>
     <row r="50" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O50" s="2">
+      <c r="O50" s="7">
         <v>1055</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="Q50" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="51" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O51" s="2"/>
+      <c r="O51" s="7"/>
       <c r="P51" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="Q51" s="2"/>
+      <c r="Q51" s="7"/>
     </row>
     <row r="52" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O52" s="1">
@@ -4057,10 +4057,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>99453</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4204,10 +4204,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>139818</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
   <sheetPr codeName="Blad6"/>
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
@@ -4975,42 +4975,42 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="5">
+      <c r="A75" s="4">
         <v>107737</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="5">
+      <c r="A76" s="4">
         <v>127857</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="5">
+      <c r="A77" s="4">
         <v>129183</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="5">
+      <c r="A78" s="4">
         <v>105337</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="5">
+      <c r="A79" s="4">
         <v>140351</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>265</v>
       </c>
     </row>
